--- a/Hézső Ádám Károly/tesztelés/TeszteljükLe.xlsx
+++ b/Hézső Ádám Károly/tesztelés/TeszteljükLe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\suli\Eg_12K\Kántor Krisztián\tesztelés\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2023-24\KZs\Eg_12K\Hézső Ádám Károly\tesztelés\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B77948-B913-420F-8DE8-931AD0EEA7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{69D20409-DAC9-41E1-99AF-66D2288A335F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1317,6 +1317,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1335,11 +1336,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1357,7 +1357,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1695,7 +1695,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2601,22 +2601,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="47">
         <v>11</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="46" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="44" t="s">
@@ -2627,12 +2627,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="45"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="44" t="s">
         <v>12</v>
       </c>
@@ -31946,7 +31946,7 @@
       <c r="F3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -31972,7 +31972,7 @@
       <c r="F4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -31998,7 +31998,7 @@
       <c r="F5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -32024,7 +32024,7 @@
       <c r="F6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -32050,7 +32050,7 @@
       <c r="F7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -32076,7 +32076,7 @@
       <c r="F8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -32116,7 +32116,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -32127,7 +32127,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="18" t="s">
         <v>72</v>
       </c>
@@ -32136,7 +32136,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="18" t="s">
         <v>74</v>
       </c>
@@ -32145,7 +32145,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="18" t="s">
         <v>76</v>
       </c>
@@ -32154,7 +32154,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -32165,7 +32165,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="18" t="s">
         <v>81</v>
       </c>
@@ -32174,7 +32174,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="18" t="s">
         <v>83</v>
       </c>
@@ -32183,7 +32183,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -32194,7 +32194,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="18" t="s">
         <v>88</v>
       </c>
@@ -32203,7 +32203,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -32214,35 +32214,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="18" t="s">
         <v>7</v>
       </c>
@@ -32251,7 +32251,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="18" t="s">
         <v>98</v>
       </c>
@@ -32260,7 +32260,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="18" t="s">
         <v>2</v>
       </c>
